--- a/Time-Card/РЕЗОНАТОРЫ/OCXO Daughtercard/BOM/OCXO_DaughterCard_NoOscillator.xlsx
+++ b/Time-Card/РЕЗОНАТОРЫ/OCXO Daughtercard/BOM/OCXO_DaughterCard_NoOscillator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\QUANTUM\QUANTUM\QUANTUM\Qantum Time-Card\РЕЗОНАТОРЫ\OCXO Daughtercard\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHIWA\Documents\GitHub\QUANTUM\Time-Card\РЕЗОНАТОРЫ\OCXO Daughtercard\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7B7BAB-4546-456A-B26A-4FDAD7670C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A1BB68-ED75-4D25-8419-ABD718C6AA35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="20976" windowHeight="10956" xr2:uid="{E42587F4-630D-400D-9E5F-2BAA80A4D32D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E42587F4-630D-400D-9E5F-2BAA80A4D32D}"/>
   </bookViews>
   <sheets>
     <sheet name="OCXO_DaughterCard_NoOscillator" sheetId="1" r:id="rId1"/>
@@ -810,18 +810,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C1971C-0999-49BE-9BBA-15DE92244036}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.44140625" customWidth="1"/>
-    <col min="2" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="28.77734375" customWidth="1"/>
-    <col min="5" max="5" width="27.109375" customWidth="1"/>
+    <col min="1" max="1" width="42.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="54.42578125" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -841,7 +844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -861,7 +864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -881,7 +884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -901,7 +904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -921,7 +924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
@@ -941,7 +944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
@@ -961,7 +964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
@@ -981,7 +984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>39</v>
       </c>
@@ -1001,7 +1004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>44</v>
       </c>
@@ -1021,7 +1024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>49</v>
       </c>
@@ -1041,7 +1044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>54</v>
       </c>
@@ -1061,7 +1064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>59</v>
       </c>
@@ -1081,7 +1084,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>63</v>
       </c>
@@ -1101,7 +1104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>67</v>
       </c>
@@ -1121,7 +1124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>72</v>
       </c>
@@ -1141,7 +1144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>77</v>
       </c>
@@ -1161,7 +1164,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>82</v>
       </c>
@@ -1181,7 +1184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>87</v>
       </c>
@@ -1201,7 +1204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>92</v>
       </c>
@@ -1221,7 +1224,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>97</v>
       </c>
@@ -1241,7 +1244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>102</v>
       </c>
@@ -1261,7 +1264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>107</v>
       </c>
@@ -1281,7 +1284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>112</v>
       </c>
@@ -1301,7 +1304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>116</v>
       </c>
@@ -1321,7 +1324,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>121</v>
       </c>
@@ -1341,7 +1344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>126</v>
       </c>
